--- a/data/poster_judge_matrix.xlsx
+++ b/data/poster_judge_matrix.xlsx
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -3650,10 +3650,10 @@
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3775,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
         <v>0</v>
@@ -3813,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -3956,19 +3956,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -4281,13 +4281,13 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4418,10 +4418,10 @@
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -4694,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -5120,10 +5120,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -5626,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
         <v>0</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO47" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
         <v>0</v>
@@ -6560,7 +6560,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50" t="n">
         <v>0</v>
@@ -6694,13 +6694,13 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN51" t="n">
         <v>0</v>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -6962,13 +6962,13 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF53" t="n">
         <v>0</v>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
         <v>0</v>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" t="n">
         <v>0</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="AK56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" t="n">
         <v>0</v>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -7501,13 +7501,13 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF57" t="n">
         <v>0</v>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -7614,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AO59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -7870,13 +7870,13 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -7995,10 +7995,10 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG61" t="n">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ62" t="n">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="AM62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN62" t="n">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="AM63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63" t="n">
         <v>0</v>
       </c>
       <c r="AO63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64" t="n">
         <v>0</v>
@@ -8418,10 +8418,10 @@
         <v>0</v>
       </c>
       <c r="AL64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN64" t="n">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -8480,13 +8480,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK66" t="n">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="AN66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO66" t="n">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK68" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI69" t="n">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN69" t="n">
         <v>0</v>

--- a/data/poster_judge_matrix.xlsx
+++ b/data/poster_judge_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:BL69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,121 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Anupam Pandey</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Zhenyu Gan</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Senem Velipasalar</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Nadeem Ghani</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Yaoying Wu</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Jeongmin Ahn</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Yi Zheng</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Baris Salman</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Jason Pollack</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Yiyang Sun</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>M. Cenk Gursoy</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Ben Akih-Kumgeh</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Svetoslava Todorova</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Elizabeth Carter</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Sucheta Soundarajan</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Yuzhe Tang</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Zhen Ma</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Min Liu</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Jesse Q. Bond</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Wanliang Shan</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Ruth Chen</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Era Jain</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Bing Dong</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -593,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -668,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -679,6 +794,33 @@
       <c r="AO2" t="n">
         <v>0</v>
       </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -721,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -799,11 +941,38 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -834,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -846,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -929,6 +1098,33 @@
       <c r="AO4" t="n">
         <v>0</v>
       </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -998,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1007,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1054,6 +1250,33 @@
       <c r="AO5" t="n">
         <v>0</v>
       </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1069,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1159,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -1179,6 +1402,33 @@
       <c r="AO6" t="n">
         <v>0</v>
       </c>
+      <c r="AP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1287,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -1302,8 +1552,35 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1337,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1382,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1429,6 +1706,33 @@
       <c r="AO8" t="n">
         <v>0</v>
       </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1489,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1549,11 +1853,38 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
       </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1584,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1668,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -1679,6 +2010,33 @@
       <c r="AO10" t="n">
         <v>0</v>
       </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1742,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1793,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -1804,6 +2162,33 @@
       <c r="AO11" t="n">
         <v>0</v>
       </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1837,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1867,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1929,6 +2314,33 @@
       <c r="AO12" t="n">
         <v>0</v>
       </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1947,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2016,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -2054,6 +2466,33 @@
       <c r="AO13" t="n">
         <v>0</v>
       </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2087,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2117,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2179,6 +2618,33 @@
       <c r="AO14" t="n">
         <v>0</v>
       </c>
+      <c r="AP14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2239,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2275,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2304,6 +2770,33 @@
       <c r="AO15" t="n">
         <v>0</v>
       </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2325,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2373,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2429,6 +2922,33 @@
       <c r="AO16" t="n">
         <v>0</v>
       </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2459,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2522,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2554,6 +3074,33 @@
       <c r="AO17" t="n">
         <v>0</v>
       </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2587,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2659,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
@@ -2679,6 +3226,33 @@
       <c r="AO18" t="n">
         <v>0</v>
       </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2706,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2799,11 +3373,38 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
         <v>0</v>
       </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2840,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2885,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -2929,6 +3530,33 @@
       <c r="AO20" t="n">
         <v>0</v>
       </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2938,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3054,6 +3682,33 @@
       <c r="AO21" t="n">
         <v>0</v>
       </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3069,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3153,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
@@ -3179,6 +3834,33 @@
       <c r="AO22" t="n">
         <v>0</v>
       </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3200,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3304,6 +3986,33 @@
       <c r="AO23" t="n">
         <v>0</v>
       </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3334,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -3376,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -3429,6 +4138,33 @@
       <c r="AO24" t="n">
         <v>0</v>
       </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3510,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -3552,8 +4288,35 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3650,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
@@ -3679,6 +4442,33 @@
       <c r="AO26" t="n">
         <v>0</v>
       </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3691,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3775,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -3804,6 +4594,33 @@
       <c r="AO27" t="n">
         <v>0</v>
       </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3819,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -3894,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -3929,6 +4746,33 @@
       <c r="AO28" t="n">
         <v>0</v>
       </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3962,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -4054,6 +4898,33 @@
       <c r="AO29" t="n">
         <v>0</v>
       </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -4078,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -4165,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -4179,6 +5050,33 @@
       <c r="AO30" t="n">
         <v>0</v>
       </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4281,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
@@ -4304,6 +5202,33 @@
       <c r="AO31" t="n">
         <v>0</v>
       </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4418,10 +5343,10 @@
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -4429,6 +5354,33 @@
       <c r="AO32" t="n">
         <v>0</v>
       </c>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr"/>
+      <c r="BL32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4483,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -4504,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -4554,6 +5506,33 @@
       <c r="AO33" t="n">
         <v>0</v>
       </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4581,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -4593,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -4679,6 +5658,33 @@
       <c r="AO34" t="n">
         <v>0</v>
       </c>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4697,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4754,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -4804,6 +5810,33 @@
       <c r="AO35" t="n">
         <v>0</v>
       </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4813,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4882,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4929,6 +5962,33 @@
       <c r="AO36" t="n">
         <v>0</v>
       </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4953,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -5007,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -5054,6 +6114,33 @@
       <c r="AO37" t="n">
         <v>0</v>
       </c>
+      <c r="AP37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -5120,10 +6207,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -5179,6 +6266,33 @@
       <c r="AO38" t="n">
         <v>0</v>
       </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -5194,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5224,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -5304,6 +6418,33 @@
       <c r="AO39" t="n">
         <v>0</v>
       </c>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -5322,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -5388,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -5429,6 +6570,33 @@
       <c r="AO40" t="n">
         <v>0</v>
       </c>
+      <c r="AP40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -5450,13 +6618,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -5554,6 +6722,33 @@
       <c r="AO41" t="n">
         <v>0</v>
       </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -5626,10 +6821,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -5679,6 +6874,33 @@
       <c r="AO42" t="n">
         <v>0</v>
       </c>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="inlineStr"/>
+      <c r="BI42" t="inlineStr"/>
+      <c r="BJ42" t="inlineStr"/>
+      <c r="BK42" t="inlineStr"/>
+      <c r="BL42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5733,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -5754,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -5804,13 +7026,40 @@
       <c r="AO43" t="n">
         <v>0</v>
       </c>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -5876,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -5929,6 +7178,33 @@
       <c r="AO44" t="n">
         <v>0</v>
       </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr"/>
+      <c r="BI44" t="inlineStr"/>
+      <c r="BJ44" t="inlineStr"/>
+      <c r="BK44" t="inlineStr"/>
+      <c r="BL44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5986,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -6052,8 +7328,35 @@
         <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr"/>
+      <c r="BI45" t="inlineStr"/>
+      <c r="BJ45" t="inlineStr"/>
+      <c r="BK45" t="inlineStr"/>
+      <c r="BL45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -6090,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -6177,8 +7480,35 @@
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr"/>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -6221,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -6299,11 +7629,38 @@
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
         <v>0</v>
       </c>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
+      <c r="BF47" t="inlineStr"/>
+      <c r="BG47" t="inlineStr"/>
+      <c r="BH47" t="inlineStr"/>
+      <c r="BI47" t="inlineStr"/>
+      <c r="BJ47" t="inlineStr"/>
+      <c r="BK47" t="inlineStr"/>
+      <c r="BL47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -6382,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -6397,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
         <v>0</v>
@@ -6429,13 +7786,40 @@
       <c r="AO48" t="n">
         <v>0</v>
       </c>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV48" t="inlineStr"/>
+      <c r="AW48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX48" t="inlineStr"/>
+      <c r="AY48" t="inlineStr"/>
+      <c r="AZ48" t="inlineStr"/>
+      <c r="BA48" t="inlineStr"/>
+      <c r="BB48" t="inlineStr"/>
+      <c r="BC48" t="inlineStr"/>
+      <c r="BD48" t="inlineStr"/>
+      <c r="BE48" t="inlineStr"/>
+      <c r="BF48" t="inlineStr"/>
+      <c r="BG48" t="inlineStr"/>
+      <c r="BH48" t="inlineStr"/>
+      <c r="BI48" t="inlineStr"/>
+      <c r="BJ48" t="inlineStr"/>
+      <c r="BK48" t="inlineStr"/>
+      <c r="BL48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -6459,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -6554,6 +7938,33 @@
       <c r="AO49" t="n">
         <v>0</v>
       </c>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr"/>
+      <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
+      <c r="AZ49" t="inlineStr"/>
+      <c r="BA49" t="inlineStr"/>
+      <c r="BB49" t="inlineStr"/>
+      <c r="BC49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD49" t="inlineStr"/>
+      <c r="BE49" t="inlineStr"/>
+      <c r="BF49" t="inlineStr"/>
+      <c r="BG49" t="inlineStr"/>
+      <c r="BH49" t="inlineStr"/>
+      <c r="BI49" t="inlineStr"/>
+      <c r="BJ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK49" t="inlineStr"/>
+      <c r="BL49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -6569,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -6623,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -6679,6 +8090,33 @@
       <c r="AO50" t="n">
         <v>0</v>
       </c>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr"/>
+      <c r="AV50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
+      <c r="AZ50" t="inlineStr"/>
+      <c r="BA50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
+      <c r="BF50" t="inlineStr"/>
+      <c r="BG50" t="inlineStr"/>
+      <c r="BH50" t="inlineStr"/>
+      <c r="BI50" t="inlineStr"/>
+      <c r="BJ50" t="inlineStr"/>
+      <c r="BK50" t="inlineStr"/>
+      <c r="BL50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -6694,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -6796,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN51" t="n">
         <v>0</v>
@@ -6804,6 +8242,33 @@
       <c r="AO51" t="n">
         <v>0</v>
       </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
+      <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="inlineStr"/>
+      <c r="BE51" t="inlineStr"/>
+      <c r="BF51" t="inlineStr"/>
+      <c r="BG51" t="inlineStr"/>
+      <c r="BH51" t="inlineStr"/>
+      <c r="BI51" t="inlineStr"/>
+      <c r="BJ51" t="inlineStr"/>
+      <c r="BK51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -6861,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -6900,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
         <v>0</v>
@@ -6929,6 +8394,33 @@
       <c r="AO52" t="n">
         <v>0</v>
       </c>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
+      <c r="AZ52" t="inlineStr"/>
+      <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr"/>
+      <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE52" t="inlineStr"/>
+      <c r="BF52" t="inlineStr"/>
+      <c r="BG52" t="inlineStr"/>
+      <c r="BH52" t="inlineStr"/>
+      <c r="BI52" t="inlineStr"/>
+      <c r="BJ52" t="inlineStr"/>
+      <c r="BK52" t="inlineStr"/>
+      <c r="BL52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6980,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7022,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
         <v>0</v>
@@ -7054,6 +8546,33 @@
       <c r="AO53" t="n">
         <v>0</v>
       </c>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="inlineStr"/>
+      <c r="BA53" t="inlineStr"/>
+      <c r="BB53" t="inlineStr"/>
+      <c r="BC53" t="inlineStr"/>
+      <c r="BD53" t="inlineStr"/>
+      <c r="BE53" t="inlineStr"/>
+      <c r="BF53" t="inlineStr"/>
+      <c r="BG53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH53" t="inlineStr"/>
+      <c r="BI53" t="inlineStr"/>
+      <c r="BJ53" t="inlineStr"/>
+      <c r="BK53" t="inlineStr"/>
+      <c r="BL53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -7120,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -7129,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -7179,6 +8698,33 @@
       <c r="AO54" t="n">
         <v>0</v>
       </c>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
+      <c r="AZ54" t="inlineStr"/>
+      <c r="BA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr"/>
+      <c r="BF54" t="inlineStr"/>
+      <c r="BG54" t="inlineStr"/>
+      <c r="BH54" t="inlineStr"/>
+      <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr"/>
+      <c r="BK54" t="inlineStr"/>
+      <c r="BL54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -7248,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -7263,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
         <v>0</v>
@@ -7304,6 +8850,33 @@
       <c r="AO55" t="n">
         <v>0</v>
       </c>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
+      <c r="AZ55" t="inlineStr"/>
+      <c r="BA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB55" t="inlineStr"/>
+      <c r="BC55" t="inlineStr"/>
+      <c r="BD55" t="inlineStr"/>
+      <c r="BE55" t="inlineStr"/>
+      <c r="BF55" t="inlineStr"/>
+      <c r="BG55" t="inlineStr"/>
+      <c r="BH55" t="inlineStr"/>
+      <c r="BI55" t="inlineStr"/>
+      <c r="BJ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK55" t="inlineStr"/>
+      <c r="BL55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -7394,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
@@ -7415,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="AK56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" t="n">
         <v>0</v>
@@ -7429,6 +9002,33 @@
       <c r="AO56" t="n">
         <v>0</v>
       </c>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
+      <c r="AZ56" t="inlineStr"/>
+      <c r="BA56" t="inlineStr"/>
+      <c r="BB56" t="inlineStr"/>
+      <c r="BC56" t="inlineStr"/>
+      <c r="BD56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE56" t="inlineStr"/>
+      <c r="BF56" t="inlineStr"/>
+      <c r="BG56" t="inlineStr"/>
+      <c r="BH56" t="inlineStr"/>
+      <c r="BI56" t="inlineStr"/>
+      <c r="BJ56" t="inlineStr"/>
+      <c r="BK56" t="inlineStr"/>
+      <c r="BL56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -7477,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -7522,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57" t="n">
         <v>0</v>
@@ -7554,6 +9154,33 @@
       <c r="AO57" t="n">
         <v>0</v>
       </c>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="inlineStr"/>
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH57" t="inlineStr"/>
+      <c r="BI57" t="inlineStr"/>
+      <c r="BJ57" t="inlineStr"/>
+      <c r="BK57" t="inlineStr"/>
+      <c r="BL57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -7566,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -7602,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -7679,6 +9306,33 @@
       <c r="AO58" t="n">
         <v>0</v>
       </c>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr"/>
+      <c r="AV58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW58" t="inlineStr"/>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
+      <c r="BH58" t="inlineStr"/>
+      <c r="BI58" t="inlineStr"/>
+      <c r="BJ58" t="inlineStr"/>
+      <c r="BK58" t="inlineStr"/>
+      <c r="BL58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -7691,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -7772,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
         <v>0</v>
@@ -7804,6 +9458,33 @@
       <c r="AO59" t="n">
         <v>0</v>
       </c>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="inlineStr"/>
+      <c r="AY59" t="inlineStr"/>
+      <c r="AZ59" t="inlineStr"/>
+      <c r="BA59" t="inlineStr"/>
+      <c r="BB59" t="inlineStr"/>
+      <c r="BC59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD59" t="inlineStr"/>
+      <c r="BE59" t="inlineStr"/>
+      <c r="BF59" t="inlineStr"/>
+      <c r="BG59" t="inlineStr"/>
+      <c r="BH59" t="inlineStr"/>
+      <c r="BI59" t="inlineStr"/>
+      <c r="BJ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK59" t="inlineStr"/>
+      <c r="BL59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -7870,13 +9551,13 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
@@ -7929,6 +9610,33 @@
       <c r="AO60" t="n">
         <v>0</v>
       </c>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AU60" t="inlineStr"/>
+      <c r="AV60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr"/>
+      <c r="AY60" t="inlineStr"/>
+      <c r="AZ60" t="inlineStr"/>
+      <c r="BA60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr"/>
+      <c r="BD60" t="inlineStr"/>
+      <c r="BE60" t="inlineStr"/>
+      <c r="BF60" t="inlineStr"/>
+      <c r="BG60" t="inlineStr"/>
+      <c r="BH60" t="inlineStr"/>
+      <c r="BI60" t="inlineStr"/>
+      <c r="BJ60" t="inlineStr"/>
+      <c r="BK60" t="inlineStr"/>
+      <c r="BL60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -7950,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -8025,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" t="n">
         <v>0</v>
@@ -8054,6 +9762,33 @@
       <c r="AO61" t="n">
         <v>0</v>
       </c>
+      <c r="AP61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr"/>
+      <c r="AZ61" t="inlineStr"/>
+      <c r="BA61" t="inlineStr"/>
+      <c r="BB61" t="inlineStr"/>
+      <c r="BC61" t="inlineStr"/>
+      <c r="BD61" t="inlineStr"/>
+      <c r="BE61" t="inlineStr"/>
+      <c r="BF61" t="inlineStr"/>
+      <c r="BG61" t="inlineStr"/>
+      <c r="BH61" t="inlineStr"/>
+      <c r="BI61" t="inlineStr"/>
+      <c r="BJ61" t="inlineStr"/>
+      <c r="BK61" t="inlineStr"/>
+      <c r="BL61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -8087,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8159,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
         <v>0</v>
@@ -8179,6 +9914,33 @@
       <c r="AO62" t="n">
         <v>0</v>
       </c>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr"/>
+      <c r="AV62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr"/>
+      <c r="AY62" t="inlineStr"/>
+      <c r="AZ62" t="inlineStr"/>
+      <c r="BA62" t="inlineStr"/>
+      <c r="BB62" t="inlineStr"/>
+      <c r="BC62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD62" t="inlineStr"/>
+      <c r="BE62" t="inlineStr"/>
+      <c r="BF62" t="inlineStr"/>
+      <c r="BG62" t="inlineStr"/>
+      <c r="BH62" t="inlineStr"/>
+      <c r="BI62" t="inlineStr"/>
+      <c r="BJ62" t="inlineStr"/>
+      <c r="BK62" t="inlineStr"/>
+      <c r="BL62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -8209,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -8251,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
@@ -8304,6 +10066,33 @@
       <c r="AO63" t="n">
         <v>0</v>
       </c>
+      <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AS63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AU63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr"/>
+      <c r="AW63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX63" t="inlineStr"/>
+      <c r="AY63" t="inlineStr"/>
+      <c r="AZ63" t="inlineStr"/>
+      <c r="BA63" t="inlineStr"/>
+      <c r="BB63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC63" t="inlineStr"/>
+      <c r="BD63" t="inlineStr"/>
+      <c r="BE63" t="inlineStr"/>
+      <c r="BF63" t="inlineStr"/>
+      <c r="BG63" t="inlineStr"/>
+      <c r="BH63" t="inlineStr"/>
+      <c r="BI63" t="inlineStr"/>
+      <c r="BJ63" t="inlineStr"/>
+      <c r="BK63" t="inlineStr"/>
+      <c r="BL63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -8349,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -8421,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AM64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN64" t="n">
         <v>0</v>
@@ -8429,6 +10218,33 @@
       <c r="AO64" t="n">
         <v>0</v>
       </c>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
+      <c r="AY64" t="inlineStr"/>
+      <c r="AZ64" t="inlineStr"/>
+      <c r="BA64" t="inlineStr"/>
+      <c r="BB64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC64" t="inlineStr"/>
+      <c r="BD64" t="inlineStr"/>
+      <c r="BE64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF64" t="inlineStr"/>
+      <c r="BG64" t="inlineStr"/>
+      <c r="BH64" t="inlineStr"/>
+      <c r="BI64" t="inlineStr"/>
+      <c r="BJ64" t="inlineStr"/>
+      <c r="BK64" t="inlineStr"/>
+      <c r="BL64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -8450,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -8480,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -8553,6 +10369,33 @@
       </c>
       <c r="AO65" t="n">
         <v>0</v>
+      </c>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
+      <c r="AZ65" t="inlineStr"/>
+      <c r="BA65" t="inlineStr"/>
+      <c r="BB65" t="inlineStr"/>
+      <c r="BC65" t="inlineStr"/>
+      <c r="BD65" t="inlineStr"/>
+      <c r="BE65" t="inlineStr"/>
+      <c r="BF65" t="inlineStr"/>
+      <c r="BG65" t="inlineStr"/>
+      <c r="BH65" t="inlineStr"/>
+      <c r="BI65" t="inlineStr"/>
+      <c r="BJ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK65" t="inlineStr"/>
+      <c r="BL65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -8578,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -8608,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -8679,6 +10522,33 @@
       <c r="AO66" t="n">
         <v>0</v>
       </c>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AU66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr"/>
+      <c r="AY66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ66" t="inlineStr"/>
+      <c r="BA66" t="inlineStr"/>
+      <c r="BB66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC66" t="inlineStr"/>
+      <c r="BD66" t="inlineStr"/>
+      <c r="BE66" t="inlineStr"/>
+      <c r="BF66" t="inlineStr"/>
+      <c r="BG66" t="inlineStr"/>
+      <c r="BH66" t="inlineStr"/>
+      <c r="BI66" t="inlineStr"/>
+      <c r="BJ66" t="inlineStr"/>
+      <c r="BK66" t="inlineStr"/>
+      <c r="BL66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -8715,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -8766,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -8804,13 +10674,40 @@
       <c r="AO67" t="n">
         <v>0</v>
       </c>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AU67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+      <c r="AZ67" t="inlineStr"/>
+      <c r="BA67" t="inlineStr"/>
+      <c r="BB67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="inlineStr"/>
+      <c r="BE67" t="inlineStr"/>
+      <c r="BF67" t="inlineStr"/>
+      <c r="BG67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH67" t="inlineStr"/>
+      <c r="BI67" t="inlineStr"/>
+      <c r="BJ67" t="inlineStr"/>
+      <c r="BK67" t="inlineStr"/>
+      <c r="BL67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -8912,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK68" t="n">
         <v>0</v>
@@ -8929,6 +10826,33 @@
       <c r="AO68" t="n">
         <v>0</v>
       </c>
+      <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
+      <c r="AS68" t="inlineStr"/>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AU68" t="inlineStr"/>
+      <c r="AV68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr"/>
+      <c r="AX68" t="inlineStr"/>
+      <c r="AY68" t="inlineStr"/>
+      <c r="AZ68" t="inlineStr"/>
+      <c r="BA68" t="inlineStr"/>
+      <c r="BB68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC68" t="inlineStr"/>
+      <c r="BD68" t="inlineStr"/>
+      <c r="BE68" t="inlineStr"/>
+      <c r="BF68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG68" t="inlineStr"/>
+      <c r="BH68" t="inlineStr"/>
+      <c r="BI68" t="inlineStr"/>
+      <c r="BJ68" t="inlineStr"/>
+      <c r="BK68" t="inlineStr"/>
+      <c r="BL68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -9031,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="AH69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
         <v>0</v>
@@ -9046,13 +10970,40 @@
         <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN69" t="n">
         <v>0</v>
       </c>
       <c r="AO69" t="n">
         <v>0</v>
+      </c>
+      <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
+      <c r="AS69" t="inlineStr"/>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AU69" t="inlineStr"/>
+      <c r="AV69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr"/>
+      <c r="AX69" t="inlineStr"/>
+      <c r="AY69" t="inlineStr"/>
+      <c r="AZ69" t="inlineStr"/>
+      <c r="BA69" t="inlineStr"/>
+      <c r="BB69" t="inlineStr"/>
+      <c r="BC69" t="inlineStr"/>
+      <c r="BD69" t="inlineStr"/>
+      <c r="BE69" t="inlineStr"/>
+      <c r="BF69" t="inlineStr"/>
+      <c r="BG69" t="inlineStr"/>
+      <c r="BH69" t="inlineStr"/>
+      <c r="BI69" t="inlineStr"/>
+      <c r="BJ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK69" t="inlineStr"/>
+      <c r="BL69" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/poster_judge_matrix.xlsx
+++ b/data/poster_judge_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL69"/>
+  <dimension ref="A1:BI69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Nadeem Ghani</t>
+          <t>Yuzhe Tang</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
@@ -581,67 +581,67 @@
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
+          <t>Yiyang Sun</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
           <t>Jeongmin Ahn</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Nadeem Ghani</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Yi Zheng</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Era Jain</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Baris Salman</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Min Liu</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Ben Akih-Kumgeh</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Zhen Ma</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Elizabeth Carter</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Jason Pollack</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Yiyang Sun</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>M. Cenk Gursoy</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Ben Akih-Kumgeh</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Svetoslava Todorova</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Elizabeth Carter</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Sucheta Soundarajan</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Yuzhe Tang</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Zhen Ma</t>
-        </is>
-      </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Min Liu</t>
+          <t>Wanliang Shan</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
@@ -651,22 +651,7 @@
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>Wanliang Shan</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
           <t>Ruth Chen</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>Era Jain</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>Bing Dong</t>
         </is>
       </c>
     </row>
@@ -818,9 +803,6 @@
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -951,7 +933,9 @@
       <c r="AR3" t="n">
         <v>1</v>
       </c>
-      <c r="AS3" t="inlineStr"/>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
@@ -963,16 +947,11 @@
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="n">
-        <v>1</v>
-      </c>
+      <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1122,9 +1101,6 @@
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1251,32 +1227,29 @@
         <v>0</v>
       </c>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
+      <c r="BE5" t="n">
+        <v>1</v>
+      </c>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
+      <c r="BH5" t="n">
+        <v>1</v>
+      </c>
       <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1402,16 +1375,16 @@
       <c r="AO6" t="n">
         <v>0</v>
       </c>
-      <c r="AP6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="n">
         <v>1</v>
       </c>
-      <c r="AU6" t="inlineStr"/>
+      <c r="AU6" t="n">
+        <v>1</v>
+      </c>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
@@ -1426,9 +1399,6 @@
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1562,12 +1532,12 @@
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
+      <c r="AV7" t="n">
+        <v>1</v>
+      </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
@@ -1578,9 +1548,6 @@
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1713,10 +1680,10 @@
       <c r="AT8" t="n">
         <v>1</v>
       </c>
-      <c r="AU8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
@@ -1730,9 +1697,6 @@
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1861,30 +1825,27 @@
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
+      <c r="BA9" t="n">
+        <v>1</v>
+      </c>
       <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="n">
-        <v>1</v>
-      </c>
+      <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2010,14 +1971,14 @@
       <c r="AO10" t="n">
         <v>0</v>
       </c>
-      <c r="AP10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="n">
         <v>1</v>
       </c>
-      <c r="AS10" t="inlineStr"/>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
@@ -2034,9 +1995,6 @@
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2165,7 +2123,9 @@
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
@@ -2174,9 +2134,7 @@
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="n">
@@ -2186,9 +2144,6 @@
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2317,16 +2272,16 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1</v>
+      </c>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
@@ -2338,9 +2293,6 @@
       <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2480,19 +2432,16 @@
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
+      <c r="BF13" t="n">
+        <v>1</v>
+      </c>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2624,14 +2573,14 @@
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
+      <c r="AY14" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
@@ -2642,9 +2591,6 @@
       <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="inlineStr"/>
       <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2771,7 +2717,9 @@
         <v>0</v>
       </c>
       <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+      <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
       <c r="AR15" t="n">
         <v>1</v>
       </c>
@@ -2790,13 +2738,8 @@
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr"/>
       <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="n">
-        <v>1</v>
-      </c>
+      <c r="BH15" t="inlineStr"/>
       <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2946,9 +2889,6 @@
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3079,7 +3019,9 @@
       <c r="AR17" t="n">
         <v>1</v>
       </c>
-      <c r="AS17" t="inlineStr"/>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
@@ -3091,16 +3033,11 @@
       <c r="BB17" t="inlineStr"/>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="n">
-        <v>1</v>
-      </c>
+      <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3227,15 +3164,15 @@
         <v>0</v>
       </c>
       <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="n">
         <v>1</v>
       </c>
-      <c r="AU18" t="inlineStr"/>
+      <c r="AU18" t="n">
+        <v>1</v>
+      </c>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
@@ -3250,9 +3187,6 @@
       <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr"/>
       <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3385,26 +3319,23 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
+      <c r="AZ19" t="n">
+        <v>1</v>
+      </c>
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
+      <c r="BE19" t="n">
+        <v>1</v>
+      </c>
       <c r="BF19" t="inlineStr"/>
       <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr"/>
       <c r="BI19" t="inlineStr"/>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3536,14 +3467,14 @@
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
@@ -3554,9 +3485,6 @@
       <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="inlineStr"/>
       <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3688,13 +3616,11 @@
       <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
@@ -3702,13 +3628,12 @@
       <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="inlineStr"/>
       <c r="BE21" t="inlineStr"/>
-      <c r="BF21" t="inlineStr"/>
+      <c r="BF21" t="n">
+        <v>1</v>
+      </c>
       <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3840,16 +3765,16 @@
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
+      <c r="AZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1</v>
+      </c>
       <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
@@ -3858,9 +3783,6 @@
       <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="inlineStr"/>
       <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="inlineStr"/>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3986,7 +3908,9 @@
       <c r="AO23" t="n">
         <v>0</v>
       </c>
-      <c r="AP23" t="inlineStr"/>
+      <c r="AP23" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ23" t="n">
         <v>1</v>
       </c>
@@ -4000,9 +3924,7 @@
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
@@ -4010,9 +3932,6 @@
       <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="inlineStr"/>
-      <c r="BJ23" t="inlineStr"/>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4145,10 +4064,10 @@
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="n">
+        <v>1</v>
+      </c>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
@@ -4162,9 +4081,6 @@
       <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="inlineStr"/>
       <c r="BI24" t="inlineStr"/>
-      <c r="BJ24" t="inlineStr"/>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4295,7 +4211,9 @@
       <c r="AR25" t="n">
         <v>1</v>
       </c>
-      <c r="AS25" t="inlineStr"/>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
@@ -4307,16 +4225,11 @@
       <c r="BB25" t="inlineStr"/>
       <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="inlineStr"/>
-      <c r="BE25" t="n">
-        <v>1</v>
-      </c>
+      <c r="BE25" t="inlineStr"/>
       <c r="BF25" t="inlineStr"/>
       <c r="BG25" t="inlineStr"/>
       <c r="BH25" t="inlineStr"/>
       <c r="BI25" t="inlineStr"/>
-      <c r="BJ25" t="inlineStr"/>
-      <c r="BK25" t="inlineStr"/>
-      <c r="BL25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4447,18 +4360,18 @@
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
       <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
+      <c r="BB26" t="n">
+        <v>1</v>
+      </c>
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
@@ -4466,9 +4379,6 @@
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="inlineStr"/>
       <c r="BI26" t="inlineStr"/>
-      <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="inlineStr"/>
-      <c r="BL26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -4600,17 +4510,17 @@
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
+      <c r="AZ27" t="n">
+        <v>1</v>
+      </c>
       <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB27" t="inlineStr"/>
       <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="inlineStr"/>
       <c r="BE27" t="inlineStr"/>
@@ -4618,9 +4528,6 @@
       <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="inlineStr"/>
       <c r="BI27" t="inlineStr"/>
-      <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="inlineStr"/>
-      <c r="BL27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -4757,22 +4664,19 @@
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
+      <c r="BC28" t="n">
+        <v>1</v>
+      </c>
       <c r="BD28" t="inlineStr"/>
       <c r="BE28" t="inlineStr"/>
       <c r="BF28" t="inlineStr"/>
       <c r="BG28" t="inlineStr"/>
       <c r="BH28" t="inlineStr"/>
       <c r="BI28" t="inlineStr"/>
-      <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -4922,9 +4826,6 @@
       <c r="BG29" t="inlineStr"/>
       <c r="BH29" t="inlineStr"/>
       <c r="BI29" t="inlineStr"/>
-      <c r="BJ29" t="inlineStr"/>
-      <c r="BK29" t="inlineStr"/>
-      <c r="BL29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5062,21 +4963,18 @@
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="inlineStr"/>
+      <c r="BD30" t="n">
+        <v>1</v>
+      </c>
       <c r="BE30" t="inlineStr"/>
       <c r="BF30" t="inlineStr"/>
       <c r="BG30" t="inlineStr"/>
       <c r="BH30" t="inlineStr"/>
       <c r="BI30" t="inlineStr"/>
-      <c r="BJ30" t="inlineStr"/>
-      <c r="BK30" t="inlineStr"/>
-      <c r="BL30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5203,7 +5101,9 @@
         <v>0</v>
       </c>
       <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="inlineStr"/>
@@ -5213,22 +5113,17 @@
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
+      <c r="BA31" t="n">
+        <v>1</v>
+      </c>
       <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="inlineStr"/>
       <c r="BE31" t="inlineStr"/>
-      <c r="BF31" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>1</v>
-      </c>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
       <c r="BH31" t="inlineStr"/>
       <c r="BI31" t="inlineStr"/>
-      <c r="BJ31" t="inlineStr"/>
-      <c r="BK31" t="inlineStr"/>
-      <c r="BL31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5361,14 +5256,14 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="n">
         <v>1</v>
       </c>
-      <c r="AZ32" t="inlineStr"/>
+      <c r="AZ32" t="n">
+        <v>1</v>
+      </c>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr"/>
@@ -5378,9 +5273,6 @@
       <c r="BG32" t="inlineStr"/>
       <c r="BH32" t="inlineStr"/>
       <c r="BI32" t="inlineStr"/>
-      <c r="BJ32" t="inlineStr"/>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -5511,11 +5403,13 @@
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="inlineStr"/>
@@ -5527,12 +5421,7 @@
       <c r="BF33" t="inlineStr"/>
       <c r="BG33" t="inlineStr"/>
       <c r="BH33" t="inlineStr"/>
-      <c r="BI33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ33" t="inlineStr"/>
-      <c r="BK33" t="inlineStr"/>
-      <c r="BL33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -5662,9 +5551,7 @@
       <c r="AQ34" t="n">
         <v>1</v>
       </c>
-      <c r="AR34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr"/>
@@ -5673,7 +5560,9 @@
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
+      <c r="BA34" t="n">
+        <v>1</v>
+      </c>
       <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="inlineStr"/>
@@ -5682,9 +5571,6 @@
       <c r="BG34" t="inlineStr"/>
       <c r="BH34" t="inlineStr"/>
       <c r="BI34" t="inlineStr"/>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -5811,18 +5697,18 @@
         <v>0</v>
       </c>
       <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1</v>
+      </c>
       <c r="AY35" t="inlineStr"/>
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
@@ -5834,9 +5720,6 @@
       <c r="BG35" t="inlineStr"/>
       <c r="BH35" t="inlineStr"/>
       <c r="BI35" t="inlineStr"/>
-      <c r="BJ35" t="inlineStr"/>
-      <c r="BK35" t="inlineStr"/>
-      <c r="BL35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -5975,20 +5858,17 @@
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="n">
-        <v>1</v>
-      </c>
+      <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr"/>
       <c r="BD36" t="inlineStr"/>
-      <c r="BE36" t="inlineStr"/>
+      <c r="BE36" t="n">
+        <v>1</v>
+      </c>
       <c r="BF36" t="inlineStr"/>
       <c r="BG36" t="inlineStr"/>
       <c r="BH36" t="inlineStr"/>
       <c r="BI36" t="inlineStr"/>
-      <c r="BJ36" t="inlineStr"/>
-      <c r="BK36" t="inlineStr"/>
-      <c r="BL36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6114,18 +5994,16 @@
       <c r="AO37" t="n">
         <v>0</v>
       </c>
-      <c r="AP37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
+      <c r="AW37" t="n">
+        <v>1</v>
+      </c>
       <c r="AX37" t="inlineStr"/>
       <c r="AY37" t="inlineStr"/>
       <c r="AZ37" t="inlineStr"/>
@@ -6134,13 +6012,12 @@
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
       <c r="BE37" t="inlineStr"/>
-      <c r="BF37" t="inlineStr"/>
+      <c r="BF37" t="n">
+        <v>1</v>
+      </c>
       <c r="BG37" t="inlineStr"/>
       <c r="BH37" t="inlineStr"/>
       <c r="BI37" t="inlineStr"/>
-      <c r="BJ37" t="inlineStr"/>
-      <c r="BK37" t="inlineStr"/>
-      <c r="BL37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6279,10 +6156,10 @@
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
       <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="n">
+        <v>1</v>
+      </c>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
       <c r="BE38" t="inlineStr"/>
@@ -6290,9 +6167,6 @@
       <c r="BG38" t="inlineStr"/>
       <c r="BH38" t="inlineStr"/>
       <c r="BI38" t="inlineStr"/>
-      <c r="BJ38" t="inlineStr"/>
-      <c r="BK38" t="inlineStr"/>
-      <c r="BL38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -6419,9 +6293,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="inlineStr"/>
@@ -6433,18 +6305,17 @@
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
-      <c r="BE39" t="inlineStr"/>
+      <c r="BE39" t="n">
+        <v>1</v>
+      </c>
       <c r="BF39" t="inlineStr"/>
-      <c r="BG39" t="inlineStr"/>
+      <c r="BG39" t="n">
+        <v>1</v>
+      </c>
       <c r="BH39" t="inlineStr"/>
       <c r="BI39" t="inlineStr"/>
-      <c r="BJ39" t="inlineStr"/>
-      <c r="BK39" t="inlineStr"/>
-      <c r="BL39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -6570,9 +6441,7 @@
       <c r="AO40" t="n">
         <v>0</v>
       </c>
-      <c r="AP40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="n">
         <v>1</v>
       </c>
@@ -6585,7 +6454,9 @@
       <c r="AX40" t="inlineStr"/>
       <c r="AY40" t="inlineStr"/>
       <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
+      <c r="BA40" t="n">
+        <v>1</v>
+      </c>
       <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
@@ -6594,9 +6465,6 @@
       <c r="BG40" t="inlineStr"/>
       <c r="BH40" t="inlineStr"/>
       <c r="BI40" t="inlineStr"/>
-      <c r="BJ40" t="inlineStr"/>
-      <c r="BK40" t="inlineStr"/>
-      <c r="BL40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -6723,7 +6591,9 @@
         <v>0</v>
       </c>
       <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
+      <c r="AQ41" t="n">
+        <v>1</v>
+      </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
       <c r="AT41" t="inlineStr"/>
@@ -6734,21 +6604,16 @@
       <c r="AY41" t="inlineStr"/>
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
-      <c r="BB41" t="inlineStr"/>
-      <c r="BC41" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
       <c r="BE41" t="inlineStr"/>
       <c r="BF41" t="inlineStr"/>
       <c r="BG41" t="inlineStr"/>
       <c r="BH41" t="inlineStr"/>
       <c r="BI41" t="inlineStr"/>
-      <c r="BJ41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK41" t="inlineStr"/>
-      <c r="BL41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -6881,26 +6746,23 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
-      <c r="AW42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
       <c r="AY42" t="inlineStr"/>
-      <c r="AZ42" t="inlineStr"/>
+      <c r="AZ42" t="n">
+        <v>1</v>
+      </c>
       <c r="BA42" t="inlineStr"/>
-      <c r="BB42" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB42" t="inlineStr"/>
       <c r="BC42" t="inlineStr"/>
       <c r="BD42" t="inlineStr"/>
       <c r="BE42" t="inlineStr"/>
-      <c r="BF42" t="inlineStr"/>
+      <c r="BF42" t="n">
+        <v>1</v>
+      </c>
       <c r="BG42" t="inlineStr"/>
       <c r="BH42" t="inlineStr"/>
       <c r="BI42" t="inlineStr"/>
-      <c r="BJ42" t="inlineStr"/>
-      <c r="BK42" t="inlineStr"/>
-      <c r="BL42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7041,18 +6903,15 @@
       <c r="BB43" t="n">
         <v>1</v>
       </c>
-      <c r="BC43" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
       <c r="BE43" t="inlineStr"/>
-      <c r="BF43" t="inlineStr"/>
+      <c r="BF43" t="n">
+        <v>1</v>
+      </c>
       <c r="BG43" t="inlineStr"/>
       <c r="BH43" t="inlineStr"/>
       <c r="BI43" t="inlineStr"/>
-      <c r="BJ43" t="inlineStr"/>
-      <c r="BK43" t="inlineStr"/>
-      <c r="BL43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -7182,16 +7041,16 @@
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
+      <c r="AT44" t="n">
+        <v>1</v>
+      </c>
       <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="inlineStr"/>
       <c r="AZ44" t="inlineStr"/>
-      <c r="BA44" t="n">
-        <v>1</v>
-      </c>
+      <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="n">
         <v>1</v>
@@ -7202,9 +7061,6 @@
       <c r="BG44" t="inlineStr"/>
       <c r="BH44" t="inlineStr"/>
       <c r="BI44" t="inlineStr"/>
-      <c r="BJ44" t="inlineStr"/>
-      <c r="BK44" t="inlineStr"/>
-      <c r="BL44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -7335,7 +7191,9 @@
         <v>1</v>
       </c>
       <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
+      <c r="AS45" t="n">
+        <v>1</v>
+      </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
@@ -7347,16 +7205,11 @@
       <c r="BB45" t="inlineStr"/>
       <c r="BC45" t="inlineStr"/>
       <c r="BD45" t="inlineStr"/>
-      <c r="BE45" t="n">
-        <v>1</v>
-      </c>
+      <c r="BE45" t="inlineStr"/>
       <c r="BF45" t="inlineStr"/>
       <c r="BG45" t="inlineStr"/>
       <c r="BH45" t="inlineStr"/>
       <c r="BI45" t="inlineStr"/>
-      <c r="BJ45" t="inlineStr"/>
-      <c r="BK45" t="inlineStr"/>
-      <c r="BL45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -7489,26 +7342,23 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="inlineStr"/>
-      <c r="AW46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="inlineStr"/>
-      <c r="AZ46" t="inlineStr"/>
+      <c r="AY46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>1</v>
+      </c>
       <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="inlineStr"/>
       <c r="BC46" t="inlineStr"/>
-      <c r="BD46" t="n">
-        <v>1</v>
-      </c>
+      <c r="BD46" t="inlineStr"/>
       <c r="BE46" t="inlineStr"/>
       <c r="BF46" t="inlineStr"/>
       <c r="BG46" t="inlineStr"/>
       <c r="BH46" t="inlineStr"/>
       <c r="BI46" t="inlineStr"/>
-      <c r="BJ46" t="inlineStr"/>
-      <c r="BK46" t="inlineStr"/>
-      <c r="BL46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -7640,27 +7490,24 @@
       <c r="AS47" t="inlineStr"/>
       <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr"/>
-      <c r="AV47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW47" t="inlineStr"/>
-      <c r="AX47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1</v>
+      </c>
       <c r="AY47" t="inlineStr"/>
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
       <c r="BE47" t="inlineStr"/>
       <c r="BF47" t="inlineStr"/>
       <c r="BG47" t="inlineStr"/>
       <c r="BH47" t="inlineStr"/>
       <c r="BI47" t="inlineStr"/>
-      <c r="BJ47" t="inlineStr"/>
-      <c r="BK47" t="inlineStr"/>
-      <c r="BL47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -7786,18 +7633,18 @@
       <c r="AO48" t="n">
         <v>0</v>
       </c>
-      <c r="AP48" t="inlineStr"/>
+      <c r="AP48" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ48" t="inlineStr"/>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="inlineStr"/>
-      <c r="AU48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
-      <c r="AW48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW48" t="inlineStr"/>
       <c r="AX48" t="inlineStr"/>
       <c r="AY48" t="inlineStr"/>
       <c r="AZ48" t="inlineStr"/>
@@ -7810,9 +7657,6 @@
       <c r="BG48" t="inlineStr"/>
       <c r="BH48" t="inlineStr"/>
       <c r="BI48" t="inlineStr"/>
-      <c r="BJ48" t="inlineStr"/>
-      <c r="BK48" t="inlineStr"/>
-      <c r="BL48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -7950,21 +7794,18 @@
       <c r="AY49" t="inlineStr"/>
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
-      <c r="BB49" t="inlineStr"/>
-      <c r="BC49" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC49" t="inlineStr"/>
       <c r="BD49" t="inlineStr"/>
       <c r="BE49" t="inlineStr"/>
       <c r="BF49" t="inlineStr"/>
-      <c r="BG49" t="inlineStr"/>
+      <c r="BG49" t="n">
+        <v>1</v>
+      </c>
       <c r="BH49" t="inlineStr"/>
       <c r="BI49" t="inlineStr"/>
-      <c r="BJ49" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK49" t="inlineStr"/>
-      <c r="BL49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -8092,16 +7933,16 @@
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS50" t="inlineStr"/>
       <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr"/>
-      <c r="AV50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW50" t="inlineStr"/>
+      <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="n">
+        <v>1</v>
+      </c>
       <c r="AX50" t="inlineStr"/>
       <c r="AY50" t="inlineStr"/>
       <c r="AZ50" t="inlineStr"/>
@@ -8114,9 +7955,6 @@
       <c r="BG50" t="inlineStr"/>
       <c r="BH50" t="inlineStr"/>
       <c r="BI50" t="inlineStr"/>
-      <c r="BJ50" t="inlineStr"/>
-      <c r="BK50" t="inlineStr"/>
-      <c r="BL50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -8249,7 +8087,9 @@
       <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr"/>
       <c r="AT51" t="inlineStr"/>
-      <c r="AU51" t="inlineStr"/>
+      <c r="AU51" t="n">
+        <v>1</v>
+      </c>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
       <c r="AX51" t="inlineStr"/>
@@ -8264,11 +8104,6 @@
       <c r="BG51" t="inlineStr"/>
       <c r="BH51" t="inlineStr"/>
       <c r="BI51" t="inlineStr"/>
-      <c r="BJ51" t="inlineStr"/>
-      <c r="BK51" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -8399,10 +8234,10 @@
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
       <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="n">
+        <v>1</v>
+      </c>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="inlineStr"/>
@@ -8418,9 +8253,6 @@
       <c r="BG52" t="inlineStr"/>
       <c r="BH52" t="inlineStr"/>
       <c r="BI52" t="inlineStr"/>
-      <c r="BJ52" t="inlineStr"/>
-      <c r="BK52" t="inlineStr"/>
-      <c r="BL52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -8552,11 +8384,13 @@
       <c r="AS53" t="inlineStr"/>
       <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr"/>
-      <c r="AV53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW53" t="inlineStr"/>
-      <c r="AX53" t="inlineStr"/>
+      <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1</v>
+      </c>
       <c r="AY53" t="inlineStr"/>
       <c r="AZ53" t="inlineStr"/>
       <c r="BA53" t="inlineStr"/>
@@ -8565,14 +8399,9 @@
       <c r="BD53" t="inlineStr"/>
       <c r="BE53" t="inlineStr"/>
       <c r="BF53" t="inlineStr"/>
-      <c r="BG53" t="n">
-        <v>1</v>
-      </c>
+      <c r="BG53" t="inlineStr"/>
       <c r="BH53" t="inlineStr"/>
       <c r="BI53" t="inlineStr"/>
-      <c r="BJ53" t="inlineStr"/>
-      <c r="BK53" t="inlineStr"/>
-      <c r="BL53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -8709,22 +8538,19 @@
       <c r="AX54" t="inlineStr"/>
       <c r="AY54" t="inlineStr"/>
       <c r="AZ54" t="inlineStr"/>
-      <c r="BA54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB54" t="inlineStr"/>
-      <c r="BC54" t="n">
-        <v>1</v>
-      </c>
+      <c r="BA54" t="inlineStr"/>
+      <c r="BB54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>
       <c r="BE54" t="inlineStr"/>
       <c r="BF54" t="inlineStr"/>
-      <c r="BG54" t="inlineStr"/>
+      <c r="BG54" t="n">
+        <v>1</v>
+      </c>
       <c r="BH54" t="inlineStr"/>
       <c r="BI54" t="inlineStr"/>
-      <c r="BJ54" t="inlineStr"/>
-      <c r="BK54" t="inlineStr"/>
-      <c r="BL54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -8861,22 +8687,19 @@
       <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="inlineStr"/>
       <c r="AZ55" t="inlineStr"/>
-      <c r="BA55" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB55" t="inlineStr"/>
+      <c r="BA55" t="inlineStr"/>
+      <c r="BB55" t="n">
+        <v>1</v>
+      </c>
       <c r="BC55" t="inlineStr"/>
-      <c r="BD55" t="inlineStr"/>
+      <c r="BD55" t="n">
+        <v>1</v>
+      </c>
       <c r="BE55" t="inlineStr"/>
       <c r="BF55" t="inlineStr"/>
       <c r="BG55" t="inlineStr"/>
       <c r="BH55" t="inlineStr"/>
       <c r="BI55" t="inlineStr"/>
-      <c r="BJ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK55" t="inlineStr"/>
-      <c r="BL55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -9003,11 +8826,11 @@
         <v>0</v>
       </c>
       <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr"/>
+      <c r="AQ56" t="n">
+        <v>1</v>
+      </c>
       <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS56" t="inlineStr"/>
       <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="inlineStr"/>
@@ -9018,17 +8841,14 @@
       <c r="BA56" t="inlineStr"/>
       <c r="BB56" t="inlineStr"/>
       <c r="BC56" t="inlineStr"/>
-      <c r="BD56" t="n">
-        <v>1</v>
-      </c>
+      <c r="BD56" t="inlineStr"/>
       <c r="BE56" t="inlineStr"/>
       <c r="BF56" t="inlineStr"/>
-      <c r="BG56" t="inlineStr"/>
+      <c r="BG56" t="n">
+        <v>1</v>
+      </c>
       <c r="BH56" t="inlineStr"/>
       <c r="BI56" t="inlineStr"/>
-      <c r="BJ56" t="inlineStr"/>
-      <c r="BK56" t="inlineStr"/>
-      <c r="BL56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -9160,11 +8980,13 @@
       <c r="AS57" t="inlineStr"/>
       <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr"/>
+      <c r="AW57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1</v>
+      </c>
       <c r="AY57" t="inlineStr"/>
       <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr"/>
@@ -9173,14 +8995,9 @@
       <c r="BD57" t="inlineStr"/>
       <c r="BE57" t="inlineStr"/>
       <c r="BF57" t="inlineStr"/>
-      <c r="BG57" t="n">
-        <v>1</v>
-      </c>
+      <c r="BG57" t="inlineStr"/>
       <c r="BH57" t="inlineStr"/>
       <c r="BI57" t="inlineStr"/>
-      <c r="BJ57" t="inlineStr"/>
-      <c r="BK57" t="inlineStr"/>
-      <c r="BL57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -9309,12 +9126,14 @@
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
       <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
+      <c r="AS58" t="n">
+        <v>1</v>
+      </c>
       <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr"/>
-      <c r="AV58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
       <c r="AY58" t="inlineStr"/>
@@ -9322,17 +9141,12 @@
       <c r="BA58" t="inlineStr"/>
       <c r="BB58" t="inlineStr"/>
       <c r="BC58" t="inlineStr"/>
-      <c r="BD58" t="n">
-        <v>1</v>
-      </c>
+      <c r="BD58" t="inlineStr"/>
       <c r="BE58" t="inlineStr"/>
       <c r="BF58" t="inlineStr"/>
       <c r="BG58" t="inlineStr"/>
       <c r="BH58" t="inlineStr"/>
       <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="inlineStr"/>
-      <c r="BK58" t="inlineStr"/>
-      <c r="BL58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -9467,24 +9281,21 @@
       <c r="AV59" t="inlineStr"/>
       <c r="AW59" t="inlineStr"/>
       <c r="AX59" t="inlineStr"/>
-      <c r="AY59" t="inlineStr"/>
+      <c r="AY59" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ59" t="inlineStr"/>
       <c r="BA59" t="inlineStr"/>
-      <c r="BB59" t="inlineStr"/>
-      <c r="BC59" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC59" t="inlineStr"/>
       <c r="BD59" t="inlineStr"/>
       <c r="BE59" t="inlineStr"/>
       <c r="BF59" t="inlineStr"/>
       <c r="BG59" t="inlineStr"/>
       <c r="BH59" t="inlineStr"/>
       <c r="BI59" t="inlineStr"/>
-      <c r="BJ59" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK59" t="inlineStr"/>
-      <c r="BL59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -9616,16 +9427,16 @@
       <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="inlineStr"/>
       <c r="AU60" t="inlineStr"/>
-      <c r="AV60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW60" t="inlineStr"/>
-      <c r="AX60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr"/>
+      <c r="AW60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1</v>
+      </c>
       <c r="AY60" t="inlineStr"/>
       <c r="AZ60" t="inlineStr"/>
-      <c r="BA60" t="n">
-        <v>1</v>
-      </c>
+      <c r="BA60" t="inlineStr"/>
       <c r="BB60" t="inlineStr"/>
       <c r="BC60" t="inlineStr"/>
       <c r="BD60" t="inlineStr"/>
@@ -9634,9 +9445,6 @@
       <c r="BG60" t="inlineStr"/>
       <c r="BH60" t="inlineStr"/>
       <c r="BI60" t="inlineStr"/>
-      <c r="BJ60" t="inlineStr"/>
-      <c r="BK60" t="inlineStr"/>
-      <c r="BL60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -9768,11 +9576,11 @@
       <c r="AQ61" t="inlineStr"/>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
-      <c r="AT61" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT61" t="inlineStr"/>
       <c r="AU61" t="inlineStr"/>
-      <c r="AV61" t="inlineStr"/>
+      <c r="AV61" t="n">
+        <v>1</v>
+      </c>
       <c r="AW61" t="inlineStr"/>
       <c r="AX61" t="inlineStr"/>
       <c r="AY61" t="inlineStr"/>
@@ -9786,9 +9594,6 @@
       <c r="BG61" t="inlineStr"/>
       <c r="BH61" t="inlineStr"/>
       <c r="BI61" t="inlineStr"/>
-      <c r="BJ61" t="inlineStr"/>
-      <c r="BK61" t="inlineStr"/>
-      <c r="BL61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -9920,27 +9725,24 @@
       <c r="AS62" t="inlineStr"/>
       <c r="AT62" t="inlineStr"/>
       <c r="AU62" t="inlineStr"/>
-      <c r="AV62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW62" t="inlineStr"/>
-      <c r="AX62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr"/>
+      <c r="AW62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1</v>
+      </c>
       <c r="AY62" t="inlineStr"/>
       <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
       <c r="BB62" t="inlineStr"/>
-      <c r="BC62" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC62" t="inlineStr"/>
       <c r="BD62" t="inlineStr"/>
       <c r="BE62" t="inlineStr"/>
       <c r="BF62" t="inlineStr"/>
       <c r="BG62" t="inlineStr"/>
       <c r="BH62" t="inlineStr"/>
       <c r="BI62" t="inlineStr"/>
-      <c r="BJ62" t="inlineStr"/>
-      <c r="BK62" t="inlineStr"/>
-      <c r="BL62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -10073,26 +9875,23 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AU63" t="inlineStr"/>
       <c r="AV63" t="inlineStr"/>
-      <c r="AW63" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW63" t="inlineStr"/>
       <c r="AX63" t="inlineStr"/>
       <c r="AY63" t="inlineStr"/>
-      <c r="AZ63" t="inlineStr"/>
+      <c r="AZ63" t="n">
+        <v>1</v>
+      </c>
       <c r="BA63" t="inlineStr"/>
-      <c r="BB63" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB63" t="inlineStr"/>
       <c r="BC63" t="inlineStr"/>
       <c r="BD63" t="inlineStr"/>
       <c r="BE63" t="inlineStr"/>
-      <c r="BF63" t="inlineStr"/>
+      <c r="BF63" t="n">
+        <v>1</v>
+      </c>
       <c r="BG63" t="inlineStr"/>
       <c r="BH63" t="inlineStr"/>
       <c r="BI63" t="inlineStr"/>
-      <c r="BJ63" t="inlineStr"/>
-      <c r="BK63" t="inlineStr"/>
-      <c r="BL63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -10225,14 +10024,14 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AU64" t="inlineStr"/>
       <c r="AV64" t="inlineStr"/>
-      <c r="AW64" t="inlineStr"/>
+      <c r="AW64" t="n">
+        <v>1</v>
+      </c>
       <c r="AX64" t="inlineStr"/>
       <c r="AY64" t="inlineStr"/>
       <c r="AZ64" t="inlineStr"/>
       <c r="BA64" t="inlineStr"/>
-      <c r="BB64" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB64" t="inlineStr"/>
       <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="inlineStr"/>
       <c r="BE64" t="n">
@@ -10242,9 +10041,6 @@
       <c r="BG64" t="inlineStr"/>
       <c r="BH64" t="inlineStr"/>
       <c r="BI64" t="inlineStr"/>
-      <c r="BJ64" t="inlineStr"/>
-      <c r="BK64" t="inlineStr"/>
-      <c r="BL64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -10382,19 +10178,16 @@
       <c r="AY65" t="inlineStr"/>
       <c r="AZ65" t="inlineStr"/>
       <c r="BA65" t="inlineStr"/>
-      <c r="BB65" t="inlineStr"/>
+      <c r="BB65" t="n">
+        <v>1</v>
+      </c>
       <c r="BC65" t="inlineStr"/>
       <c r="BD65" t="inlineStr"/>
       <c r="BE65" t="inlineStr"/>
       <c r="BF65" t="inlineStr"/>
       <c r="BG65" t="inlineStr"/>
       <c r="BH65" t="inlineStr"/>
-      <c r="BI65" t="inlineStr"/>
-      <c r="BJ65" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK65" t="inlineStr"/>
-      <c r="BL65" t="n">
+      <c r="BI65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10525,30 +10318,27 @@
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr"/>
       <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
+      <c r="AS66" t="n">
+        <v>1</v>
+      </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AU66" t="inlineStr"/>
       <c r="AV66" t="inlineStr"/>
       <c r="AW66" t="inlineStr"/>
       <c r="AX66" t="inlineStr"/>
-      <c r="AY66" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY66" t="inlineStr"/>
       <c r="AZ66" t="inlineStr"/>
       <c r="BA66" t="inlineStr"/>
-      <c r="BB66" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB66" t="inlineStr"/>
       <c r="BC66" t="inlineStr"/>
       <c r="BD66" t="inlineStr"/>
       <c r="BE66" t="inlineStr"/>
-      <c r="BF66" t="inlineStr"/>
+      <c r="BF66" t="n">
+        <v>1</v>
+      </c>
       <c r="BG66" t="inlineStr"/>
       <c r="BH66" t="inlineStr"/>
       <c r="BI66" t="inlineStr"/>
-      <c r="BJ66" t="inlineStr"/>
-      <c r="BK66" t="inlineStr"/>
-      <c r="BL66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -10682,25 +10472,22 @@
       <c r="AU67" t="inlineStr"/>
       <c r="AV67" t="inlineStr"/>
       <c r="AW67" t="inlineStr"/>
-      <c r="AX67" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX67" t="inlineStr"/>
       <c r="AY67" t="inlineStr"/>
       <c r="AZ67" t="inlineStr"/>
-      <c r="BA67" t="inlineStr"/>
+      <c r="BA67" t="n">
+        <v>1</v>
+      </c>
       <c r="BB67" t="inlineStr"/>
       <c r="BC67" t="inlineStr"/>
       <c r="BD67" t="inlineStr"/>
       <c r="BE67" t="inlineStr"/>
-      <c r="BF67" t="inlineStr"/>
-      <c r="BG67" t="n">
-        <v>1</v>
-      </c>
+      <c r="BF67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG67" t="inlineStr"/>
       <c r="BH67" t="inlineStr"/>
       <c r="BI67" t="inlineStr"/>
-      <c r="BJ67" t="inlineStr"/>
-      <c r="BK67" t="inlineStr"/>
-      <c r="BL67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -10838,11 +10625,11 @@
       <c r="AY68" t="inlineStr"/>
       <c r="AZ68" t="inlineStr"/>
       <c r="BA68" t="inlineStr"/>
-      <c r="BB68" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB68" t="inlineStr"/>
       <c r="BC68" t="inlineStr"/>
-      <c r="BD68" t="inlineStr"/>
+      <c r="BD68" t="n">
+        <v>1</v>
+      </c>
       <c r="BE68" t="inlineStr"/>
       <c r="BF68" t="n">
         <v>1</v>
@@ -10850,9 +10637,6 @@
       <c r="BG68" t="inlineStr"/>
       <c r="BH68" t="inlineStr"/>
       <c r="BI68" t="inlineStr"/>
-      <c r="BJ68" t="inlineStr"/>
-      <c r="BK68" t="inlineStr"/>
-      <c r="BL68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -10991,20 +10775,17 @@
       <c r="AZ69" t="inlineStr"/>
       <c r="BA69" t="inlineStr"/>
       <c r="BB69" t="inlineStr"/>
-      <c r="BC69" t="inlineStr"/>
-      <c r="BD69" t="inlineStr"/>
+      <c r="BC69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1</v>
+      </c>
       <c r="BE69" t="inlineStr"/>
       <c r="BF69" t="inlineStr"/>
       <c r="BG69" t="inlineStr"/>
       <c r="BH69" t="inlineStr"/>
       <c r="BI69" t="inlineStr"/>
-      <c r="BJ69" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK69" t="inlineStr"/>
-      <c r="BL69" t="n">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/poster_judge_matrix.xlsx
+++ b/data/poster_judge_matrix.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Yiyang Sun</t>
+          <t>Era Jain</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Era Jain</t>
+          <t>Elizabeth Carter</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Zhen Ma</t>
+          <t>Wanliang Shan</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Elizabeth Carter</t>
+          <t>Zhen Ma</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Wanliang Shan</t>
+          <t>Yiyang Sun</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
@@ -1245,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="n">
-        <v>1</v>
-      </c>
+      <c r="BG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2574,13 +2574,13 @@
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
+      <c r="AU14" t="n">
+        <v>1</v>
+      </c>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
@@ -4664,13 +4664,13 @@
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
+      <c r="AY28" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC28" t="inlineStr"/>
       <c r="BD28" t="inlineStr"/>
       <c r="BE28" t="inlineStr"/>
       <c r="BF28" t="inlineStr"/>
@@ -4966,10 +4966,10 @@
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD30" t="inlineStr"/>
       <c r="BE30" t="inlineStr"/>
       <c r="BF30" t="inlineStr"/>
       <c r="BG30" t="inlineStr"/>
@@ -5258,16 +5258,16 @@
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY32" t="inlineStr"/>
       <c r="AZ32" t="n">
         <v>1</v>
       </c>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="inlineStr"/>
+      <c r="BD32" t="n">
+        <v>1</v>
+      </c>
       <c r="BE32" t="inlineStr"/>
       <c r="BF32" t="inlineStr"/>
       <c r="BG32" t="inlineStr"/>
@@ -5403,9 +5403,7 @@
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="n">
         <v>1</v>
       </c>
@@ -5416,7 +5414,9 @@
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
+      <c r="BD33" t="n">
+        <v>1</v>
+      </c>
       <c r="BE33" t="inlineStr"/>
       <c r="BF33" t="inlineStr"/>
       <c r="BG33" t="inlineStr"/>
@@ -7052,13 +7052,13 @@
       <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
-      <c r="BC44" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
       <c r="BE44" t="inlineStr"/>
       <c r="BF44" t="inlineStr"/>
-      <c r="BG44" t="inlineStr"/>
+      <c r="BG44" t="n">
+        <v>1</v>
+      </c>
       <c r="BH44" t="inlineStr"/>
       <c r="BI44" t="inlineStr"/>
     </row>
@@ -7344,9 +7344,7 @@
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY46" t="inlineStr"/>
       <c r="AZ46" t="n">
         <v>1</v>
       </c>
@@ -7356,7 +7354,9 @@
       <c r="BD46" t="inlineStr"/>
       <c r="BE46" t="inlineStr"/>
       <c r="BF46" t="inlineStr"/>
-      <c r="BG46" t="inlineStr"/>
+      <c r="BG46" t="n">
+        <v>1</v>
+      </c>
       <c r="BH46" t="inlineStr"/>
       <c r="BI46" t="inlineStr"/>
     </row>
@@ -7791,7 +7791,9 @@
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
       <c r="AX49" t="inlineStr"/>
-      <c r="AY49" t="inlineStr"/>
+      <c r="AY49" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
       <c r="BB49" t="n">
@@ -7801,9 +7803,7 @@
       <c r="BD49" t="inlineStr"/>
       <c r="BE49" t="inlineStr"/>
       <c r="BF49" t="inlineStr"/>
-      <c r="BG49" t="n">
-        <v>1</v>
-      </c>
+      <c r="BG49" t="inlineStr"/>
       <c r="BH49" t="inlineStr"/>
       <c r="BI49" t="inlineStr"/>
     </row>
@@ -8244,10 +8244,10 @@
       <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="inlineStr"/>
       <c r="BB52" t="inlineStr"/>
-      <c r="BC52" t="inlineStr"/>
-      <c r="BD52" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD52" t="inlineStr"/>
       <c r="BE52" t="inlineStr"/>
       <c r="BF52" t="inlineStr"/>
       <c r="BG52" t="inlineStr"/>
@@ -8542,13 +8542,13 @@
       <c r="BB54" t="n">
         <v>1</v>
       </c>
-      <c r="BC54" t="inlineStr"/>
+      <c r="BC54" t="n">
+        <v>1</v>
+      </c>
       <c r="BD54" t="inlineStr"/>
       <c r="BE54" t="inlineStr"/>
       <c r="BF54" t="inlineStr"/>
-      <c r="BG54" t="n">
-        <v>1</v>
-      </c>
+      <c r="BG54" t="inlineStr"/>
       <c r="BH54" t="inlineStr"/>
       <c r="BI54" t="inlineStr"/>
     </row>
@@ -8692,12 +8692,12 @@
         <v>1</v>
       </c>
       <c r="BC55" t="inlineStr"/>
-      <c r="BD55" t="n">
-        <v>1</v>
-      </c>
+      <c r="BD55" t="inlineStr"/>
       <c r="BE55" t="inlineStr"/>
       <c r="BF55" t="inlineStr"/>
-      <c r="BG55" t="inlineStr"/>
+      <c r="BG55" t="n">
+        <v>1</v>
+      </c>
       <c r="BH55" t="inlineStr"/>
       <c r="BI55" t="inlineStr"/>
     </row>
@@ -8840,13 +8840,13 @@
       <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr"/>
       <c r="BB56" t="inlineStr"/>
-      <c r="BC56" t="inlineStr"/>
+      <c r="BC56" t="n">
+        <v>1</v>
+      </c>
       <c r="BD56" t="inlineStr"/>
       <c r="BE56" t="inlineStr"/>
       <c r="BF56" t="inlineStr"/>
-      <c r="BG56" t="n">
-        <v>1</v>
-      </c>
+      <c r="BG56" t="inlineStr"/>
       <c r="BH56" t="inlineStr"/>
       <c r="BI56" t="inlineStr"/>
     </row>
@@ -9130,9 +9130,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU58" t="inlineStr"/>
       <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
@@ -9145,7 +9143,9 @@
       <c r="BE58" t="inlineStr"/>
       <c r="BF58" t="inlineStr"/>
       <c r="BG58" t="inlineStr"/>
-      <c r="BH58" t="inlineStr"/>
+      <c r="BH58" t="n">
+        <v>1</v>
+      </c>
       <c r="BI58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -9281,9 +9281,7 @@
       <c r="AV59" t="inlineStr"/>
       <c r="AW59" t="inlineStr"/>
       <c r="AX59" t="inlineStr"/>
-      <c r="AY59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY59" t="inlineStr"/>
       <c r="AZ59" t="inlineStr"/>
       <c r="BA59" t="inlineStr"/>
       <c r="BB59" t="n">
@@ -9295,7 +9293,9 @@
       <c r="BF59" t="inlineStr"/>
       <c r="BG59" t="inlineStr"/>
       <c r="BH59" t="inlineStr"/>
-      <c r="BI59" t="inlineStr"/>
+      <c r="BI59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10175,7 +10175,9 @@
       <c r="AV65" t="inlineStr"/>
       <c r="AW65" t="inlineStr"/>
       <c r="AX65" t="inlineStr"/>
-      <c r="AY65" t="inlineStr"/>
+      <c r="AY65" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ65" t="inlineStr"/>
       <c r="BA65" t="inlineStr"/>
       <c r="BB65" t="n">
@@ -10187,9 +10189,7 @@
       <c r="BF65" t="inlineStr"/>
       <c r="BG65" t="inlineStr"/>
       <c r="BH65" t="inlineStr"/>
-      <c r="BI65" t="n">
-        <v>1</v>
-      </c>
+      <c r="BI65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -10767,20 +10767,20 @@
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
       <c r="AT69" t="inlineStr"/>
-      <c r="AU69" t="inlineStr"/>
+      <c r="AU69" t="n">
+        <v>1</v>
+      </c>
       <c r="AV69" t="inlineStr"/>
       <c r="AW69" t="inlineStr"/>
       <c r="AX69" t="inlineStr"/>
-      <c r="AY69" t="inlineStr"/>
+      <c r="AY69" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ69" t="inlineStr"/>
       <c r="BA69" t="inlineStr"/>
       <c r="BB69" t="inlineStr"/>
-      <c r="BC69" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC69" t="inlineStr"/>
+      <c r="BD69" t="inlineStr"/>
       <c r="BE69" t="inlineStr"/>
       <c r="BF69" t="inlineStr"/>
       <c r="BG69" t="inlineStr"/>
